--- a/testcase/XXD/TIANDUN/TradeCenter/TradeCenter.xlsx
+++ b/testcase/XXD/TIANDUN/TradeCenter/TradeCenter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26780" yWindow="2760" windowWidth="25580" windowHeight="15460" tabRatio="500" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="26780" yWindow="2760" windowWidth="25580" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="bids" sheetId="4" r:id="rId1"/>
@@ -176,15 +176,9 @@
     <t>XXD_PAY_GATE</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/tradeCenter/bid/payGateAbandonedBidCallBack/${bidCode}</t>
-  </si>
-  <si>
     <t>BW201799211122</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/tradeCenter/bid/statuses?key=${key}&amp;ids=${ids}</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
@@ -224,30 +218,12 @@
     <t xml:space="preserve">key=bidIds </t>
   </si>
   <si>
-    <t>http://stage.xxd.com/tradeCenter/bid/${applyCode}/loanAmount</t>
-  </si>
-  <si>
-    <t>http://stage.xxd.com/tradeCenter/bid/${bidCode}/borrowerDetail</t>
-  </si>
-  <si>
     <t>BO20170418000111</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/tradeCenter/bid/${bidCode}/investment</t>
-  </si>
-  <si>
-    <t>http://stage.xxd.com/tradeCenter/bid/${bidCode}/loanRecord</t>
-  </si>
-  <si>
-    <t>http://stage.xxd.com/tradeCenter/bid/${bidCode}/repayment</t>
-  </si>
-  <si>
     <t>productType</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/tradeCenter/bid/${productType}/staticResource?typeKey=${typeKey}&amp;source=${source}</t>
-  </si>
-  <si>
     <t>typeKey</t>
   </si>
   <si>
@@ -287,9 +263,6 @@
     <t>source无效</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/tradeCenter/bid/bids?keyType=${keyType}&amp;keyValue=${keyValue}&amp;status=${status}&amp;productCategory=${productCategory}&amp;currentPage=${currentPage}&amp;pageSize=${pageSize}</t>
-  </si>
-  <si>
     <t>keyValue</t>
   </si>
   <si>
@@ -314,9 +287,6 @@
     <t>productCategory传空</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/tradeCenter/bid/${bidCode}</t>
-  </si>
-  <si>
     <t>!#@$</t>
   </si>
   <si>
@@ -377,9 +347,6 @@
     <t>source中文</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/tradeCenter/loan-decreasement/batchDebit/terms?accountId=${accountId}&amp;repayPlanIdList=${repayPlanIdList}</t>
-  </si>
-  <si>
     <t>repayPlanIdList</t>
   </si>
   <si>
@@ -419,9 +386,6 @@
     <t>repayPlanIdList超长</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/tradeCenter/loan-decreasement/control/statuses?batchDate=${batchDate}&amp;szrAccounts=${szrAccounts}</t>
-  </si>
-  <si>
     <t>szrAccounts</t>
   </si>
   <si>
@@ -458,12 +422,6 @@
     <t>szrAccounts超长</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/tradeCenter/loan-decreasement/repayment/schedule?accountId=${accountId}&amp;repayPlanIdList=${repayPlanIdList}</t>
-  </si>
-  <si>
-    <t>http://stage.xxd.com/tradeCenter/loan-increasement/statuses?bidCodes=${bidCodes}</t>
-  </si>
-  <si>
     <t>["BO20170405000000","BO20170405000001"]</t>
   </si>
   <si>
@@ -486,6 +444,48 @@
   </si>
   <si>
     <t>bidCodes</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/tradeCenter/bid/bids?keyType=${keyType}&amp;keyValue=${keyValue}&amp;status=${status}&amp;productCategory=${productCategory}&amp;currentPage=${currentPage}&amp;pageSize=${pageSize}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/tradeCenter/bid/${bidCode}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/tradeCenter/bid/payGateAbandonedBidCallBack/${bidCode}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/tradeCenter/bid/statuses?key=${key}&amp;ids=${ids}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/tradeCenter/bid/${applyCode}/loanAmount</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/tradeCenter/bid/${bidCode}/borrowerDetail</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/tradeCenter/bid/${bidCode}/investment</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/tradeCenter/bid/${bidCode}/loanRecord</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/tradeCenter/bid/${bidCode}/repayment</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/tradeCenter/bid/${productType}/staticResource?typeKey=${typeKey}&amp;source=${source}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/tradeCenter/loan-decreasement/batchDebit/terms?accountId=${accountId}&amp;repayPlanIdList=${repayPlanIdList}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/tradeCenter/loan-decreasement/control/statuses?batchDate=${batchDate}&amp;szrAccounts=${szrAccounts}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/tradeCenter/loan-decreasement/repayment/schedule?accountId=${accountId}&amp;repayPlanIdList=${repayPlanIdList}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/tradeCenter/loan-increasement/statuses?bidCodes=${bidCodes}</t>
   </si>
 </sst>
 </file>
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -986,7 +986,7 @@
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -1022,7 +1022,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>15</v>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -1345,7 +1345,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -1372,7 +1372,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -1396,7 +1396,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -1426,7 +1426,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1453,7 +1453,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -1504,7 +1504,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -1516,7 +1516,7 @@
         <v>13</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
@@ -1531,7 +1531,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -1546,7 +1546,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>16</v>
@@ -1560,7 +1560,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I23" s="4">
         <v>200406</v>
@@ -1587,10 +1587,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D24" s="4">
         <v>10</v>
@@ -1614,13 +1614,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>13</v>
@@ -1641,7 +1641,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F26" s="4">
         <v>3</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>8</v>
@@ -1731,13 +1731,13 @@
         <v>12</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>9</v>
@@ -1757,10 +1757,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F4" s="4">
         <v>200000</v>
@@ -1772,14 +1772,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F5" s="4">
         <v>200406</v>
@@ -1792,16 +1792,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F6" s="4">
         <v>200406</v>
@@ -1820,10 +1820,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F7" s="4">
         <v>100500</v>
@@ -1836,14 +1836,14 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F8" s="4">
         <v>200400</v>
@@ -1855,7 +1855,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>16</v>
@@ -1864,7 +1864,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F9" s="4">
         <v>200400</v>
@@ -1876,16 +1876,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F10" s="4">
         <v>200406</v>
@@ -1897,13 +1897,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
@@ -1916,13 +1916,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>41</v>
@@ -1937,16 +1937,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F13" s="4">
         <v>200406</v>
@@ -1958,16 +1958,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F14" s="4">
         <v>200406</v>
@@ -1978,16 +1978,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F15" s="4">
         <v>200406</v>
@@ -1998,16 +1998,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F16" s="4">
         <v>200406</v>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>8</v>
@@ -2078,10 +2078,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>9</v>
@@ -2101,7 +2101,7 @@
         <v>110</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E4" s="4">
         <v>200000</v>
@@ -2113,11 +2113,11 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E5" s="4">
         <v>200400</v>
@@ -2130,13 +2130,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E6" s="4">
         <v>200000</v>
@@ -2149,13 +2149,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E7" s="4">
         <v>200000</v>
@@ -2168,13 +2168,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E8" s="4">
         <v>200400</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C9" s="17">
         <v>110</v>
@@ -2202,7 +2202,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C10" s="17">
         <v>110</v>
@@ -2220,13 +2220,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C11" s="17">
         <v>110</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E11" s="4">
         <v>200000</v>
@@ -2238,13 +2238,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E12" s="4">
         <v>200000</v>
@@ -2255,13 +2255,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C13" s="17">
         <v>110</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E13" s="4">
         <v>200000</v>
@@ -2272,7 +2272,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C14" s="17">
         <v>110</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>8</v>
@@ -2348,10 +2348,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>9</v>
@@ -2371,7 +2371,7 @@
         <v>20170516</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E4" s="4">
         <v>200000</v>
@@ -2383,11 +2383,11 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E5" s="4">
         <v>200000</v>
@@ -2400,13 +2400,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E6" s="4">
         <v>200000</v>
@@ -2419,13 +2419,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E7" s="4">
         <v>100500</v>
@@ -2438,13 +2438,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E8" s="4">
         <v>100500</v>
@@ -2456,7 +2456,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C9" s="17">
         <v>20170516</v>
@@ -2472,7 +2472,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C10" s="17">
         <v>20170516</v>
@@ -2490,13 +2490,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C11" s="17">
         <v>20170516</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E11" s="4">
         <v>200000</v>
@@ -2508,13 +2508,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E12" s="4">
         <v>200000</v>
@@ -2525,13 +2525,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C13" s="17">
         <v>20170516</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E13" s="4">
         <v>200000</v>
@@ -2542,7 +2542,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C14" s="17">
         <v>20170516</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>8</v>
@@ -2618,10 +2618,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>9</v>
@@ -2641,7 +2641,7 @@
         <v>110</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E4" s="4">
         <v>200000</v>
@@ -2653,11 +2653,11 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E5" s="4">
         <v>200400</v>
@@ -2670,13 +2670,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E6" s="4">
         <v>200000</v>
@@ -2689,13 +2689,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E7" s="4">
         <v>200000</v>
@@ -2708,13 +2708,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E8" s="4">
         <v>200400</v>
@@ -2726,7 +2726,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C9" s="17">
         <v>110</v>
@@ -2742,7 +2742,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C10" s="17">
         <v>110</v>
@@ -2760,13 +2760,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C11" s="17">
         <v>110</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E11" s="4">
         <v>200000</v>
@@ -2778,13 +2778,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E12" s="4">
         <v>200000</v>
@@ -2795,13 +2795,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C13" s="17">
         <v>110</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E13" s="4">
         <v>200000</v>
@@ -2812,7 +2812,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C14" s="17">
         <v>110</v>
@@ -2836,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>8</v>
@@ -2891,7 +2891,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
@@ -2908,7 +2908,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D4" s="4">
         <v>200000</v>
@@ -2920,10 +2920,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D5" s="4">
         <v>200400</v>
@@ -2965,10 +2965,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D8" s="4">
         <v>200400</v>
@@ -2979,7 +2979,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D9" s="4">
         <v>100500</v>
@@ -2990,7 +2990,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>41</v>
@@ -3004,10 +3004,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D11" s="4">
         <v>100500</v>
@@ -3018,10 +3018,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D12" s="4">
         <v>200406</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -3121,10 +3121,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D5" s="4">
         <v>200406</v>
@@ -3166,10 +3166,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D8" s="4">
         <v>200406</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -3258,7 +3258,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="4">
         <v>200000</v>
@@ -3270,10 +3270,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D5" s="4">
         <v>200000</v>
@@ -3315,10 +3315,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D8" s="4">
         <v>200000</v>
@@ -3327,7 +3327,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://stage.xxd.com/tradeCenter/bid/payGateAbandonedBidCallBack/${bidCode}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -3390,10 +3390,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>9</v>
@@ -3407,13 +3407,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E4" s="4">
         <v>200000</v>
@@ -3425,13 +3425,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E5" s="4">
         <v>200000</v>
@@ -3443,13 +3443,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E6" s="4">
         <v>200000</v>
@@ -3462,10 +3462,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E7" s="4">
         <v>200400</v>
@@ -3478,13 +3478,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E8" s="4">
         <v>200400</v>
@@ -3497,13 +3497,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E9" s="4">
         <v>100500</v>
@@ -3516,10 +3516,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4">
@@ -3532,10 +3532,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>33</v>
@@ -3550,10 +3550,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>26</v>
@@ -3568,13 +3568,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E13" s="4">
         <v>100500</v>
@@ -3585,13 +3585,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E14" s="4">
         <v>100500</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -3725,10 +3725,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D7" s="4">
         <v>200406</v>
@@ -3740,10 +3740,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D8" s="4">
         <v>200406</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>8</v>
@@ -3836,7 +3836,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D4" s="4">
         <v>200000</v>
@@ -3848,10 +3848,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D5" s="4">
         <v>200406</v>
@@ -3893,10 +3893,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D8" s="4">
         <v>200406</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>8</v>
@@ -3986,7 +3986,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D4" s="4">
         <v>200000</v>
@@ -3998,10 +3998,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D5" s="4">
         <v>200406</v>
@@ -4043,10 +4043,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D8" s="4">
         <v>200406</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>8</v>
@@ -4137,7 +4137,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D4" s="4">
         <v>200000</v>
@@ -4149,10 +4149,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D5" s="4">
         <v>200406</v>
@@ -4194,10 +4194,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D8" s="4">
         <v>200406</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>8</v>
@@ -4288,7 +4288,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D4" s="4">
         <v>200000</v>
@@ -4300,10 +4300,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D5" s="4">
         <v>200406</v>
@@ -4345,10 +4345,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D8" s="4">
         <v>200406</v>
